--- a/システム物理説明/システムアーキテクチャ物理構成図.xlsx
+++ b/システム物理説明/システムアーキテクチャ物理構成図.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishidayuki/Desktop/気象データ明細出力_システム全容doc/システム物理説明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F713480-AE03-5B4E-8F16-137EF203DA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B030D-4B7D-3841-BF0C-65CCDBABC607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="バッチアーキテクチャ" sheetId="1" r:id="rId1"/>
-    <sheet name="オンラインアーキテクチャ" sheetId="2" r:id="rId2"/>
+    <sheet name="バッチアーキテクチャ(サーバーサイドAPI)" sheetId="1" r:id="rId1"/>
+    <sheet name="オンラインアーキテクチャ(サーバーサイドAPI)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>気象データ明細出力_システムアーキテクチャ物理構成図</t>
     <rPh sb="0" eb="2">
@@ -63,19 +63,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>これらはすべて一つのプロセスの別スレッドとして、バックグラウンドで動作をします。</t>
-    <rPh sb="7" eb="8">
-      <t>ヒトテゥ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ベテゥ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2.バッチアーキテクチャ物理構成図</t>
     <rPh sb="12" eb="17">
       <t>ブツリコウス</t>
@@ -84,16 +71,6 @@
   </si>
   <si>
     <t>リアルタイムのオンライン処理のアーキテクチャについてです。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オンライン処理は2システム構成になっていますが、バックエンドシステムのアーキテクチャについてのみ説明します。</t>
-    <rPh sb="13" eb="15">
-      <t>コウセイニ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>セツメイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -124,38 +101,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>viewとSerializerに様々な用途のコードが混在して太ってしまうことと、</t>
-    <rPh sb="16" eb="17">
-      <t xml:space="preserve">サマザマナ </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヨウト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コンザイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>フトッテ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>3.オンラインアーキテクチャ物理構成図</t>
     <rPh sb="14" eb="16">
       <t>ブツリ</t>
     </rPh>
     <rPh sb="16" eb="19">
       <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バッチ基盤では、フレームワークは使用をしていません。</t>
-    <rPh sb="3" eb="5">
-      <t>キバn</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -186,18 +137,235 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DBアクセスをどこで行うか？というルールがないため、どこでもDBアクセスをしてしまうという問題があります。下記は、この問題を解決する、本システムのオンラインアーキテクチャです。</t>
+    <r>
+      <t>これらはすべて</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>オンライン処理プロセスの別スレッド</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>として、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>バックグラウンド</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で動作をします。</t>
+    </r>
+    <rPh sb="19" eb="20">
+      <t>ベテゥ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチ基盤では、フレームワークは使用をしていません。通常のPythonのみで構成されています。</t>
+    <rPh sb="3" eb="5">
+      <t>キバn</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オンライン処理は2システム構成になっていますが、サーバーサイドAPIのアーキテクチャについてのみ説明します。</t>
+    <rPh sb="13" eb="15">
+      <t>コウセイニ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>viewとSerializerに様々な用途のコードが混在して太ってしまう問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と、</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">サマザマナ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コンザイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フトッテ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>DB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>アクセスをどこで行うか？というルールがないため、どこでも</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>DB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>アクセスをしてしまうという問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>があります。</t>
+    </r>
     <rPh sb="10" eb="11">
       <t>オコナウ</t>
     </rPh>
-    <rPh sb="53" eb="55">
-      <t>カキ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>下記は、この問題を解決する、本システムのオンラインアーキテクチャです。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>DDD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>アーキテクチャ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>を参考に構成しております。</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>サンコウ</t>
     </rPh>
-    <rPh sb="62" eb="64">
-      <t>カイケテゥ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ホn</t>
+    <rPh sb="14" eb="16">
+      <t>コウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -206,7 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +412,37 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -303,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -312,7 +511,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1406,8 +1607,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>185208</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>180971</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1422,15 +1623,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5610156" y="9224782"/>
-          <a:ext cx="1912830" cy="910936"/>
+          <a:off x="5652414" y="8964142"/>
+          <a:ext cx="1928676" cy="568329"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 3257"/>
             <a:gd name="adj2" fmla="val 8596"/>
-            <a:gd name="adj3" fmla="val -149467"/>
-            <a:gd name="adj4" fmla="val 29524"/>
+            <a:gd name="adj3" fmla="val -241481"/>
+            <a:gd name="adj4" fmla="val 28749"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -3279,112 +3480,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69953A94-0DE3-9543-A596-8FC618FB29C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7467600" y="4991100"/>
-          <a:ext cx="1930400" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C22BBD1A-2D23-C44B-9597-F73729762798}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7416800" y="5118100"/>
-          <a:ext cx="1955800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -3462,112 +3557,6 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="7429500" y="6286500"/>
-          <a:ext cx="1955800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF41212-08EA-544C-8B85-DEE933194730}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7480300" y="7315200"/>
-          <a:ext cx="1930400" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="直線矢印コネクタ 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7253BC0-2AB8-CD4E-AF1B-085EF0B898A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7429500" y="7442200"/>
           <a:ext cx="1955800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4663,13 +4652,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>34660</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>215446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>308195</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180404</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5242,13 +5231,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28862</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>144317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>317499</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5320,13 +5309,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>48283</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>129381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>294821</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5425,13 +5414,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>262537</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>117352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>198266</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>176618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5553,13 +5542,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190884</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>113394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600982</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>202046</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5575,8 +5564,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2203714" y="6738960"/>
-          <a:ext cx="2422928" cy="2137426"/>
+          <a:off x="2203714" y="6966602"/>
+          <a:ext cx="2422928" cy="2137425"/>
           <a:chOff x="1864975" y="6779098"/>
           <a:chExt cx="2431868" cy="2168629"/>
         </a:xfrm>
@@ -5808,13 +5797,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>328840</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>124733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>521608</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>29937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5888,13 +5877,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>315618</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>75596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>192769</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>113394</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5968,13 +5957,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>447219</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>118383</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>272141</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>23587</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6048,13 +6037,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>621776</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>211666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>67910</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>145487</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6128,13 +6117,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>425702</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>170408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>104230</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6208,13 +6197,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>567005</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>16770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>597788</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>141521</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6230,7 +6219,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11302099" y="6869978"/>
+          <a:off x="11302099" y="7097619"/>
           <a:ext cx="2043614" cy="1490600"/>
           <a:chOff x="12167094" y="7239895"/>
           <a:chExt cx="2037836" cy="1485465"/>
@@ -6313,13 +6302,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571774</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>176618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>646339</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>170090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6373,13 +6362,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>55156</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>158929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>147410</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>79376</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6433,13 +6422,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>531585</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>43998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>317501</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6493,13 +6482,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>185056</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>60326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>442232</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>170089</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6553,13 +6542,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>317503</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>122008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>424544</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>90713</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6613,13 +6602,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>322492</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>161014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>396878</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>158749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6673,13 +6662,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>408213</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>215446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>102052</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6742,13 +6731,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>555626</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>147411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>589643</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>170090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6811,13 +6800,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>93663</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>139018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6871,13 +6860,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>612321</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>181428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>566964</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>92404</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6956,13 +6945,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>17753</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>48078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>185840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7340,8 +7329,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -7371,12 +7360,12 @@
     </row>
     <row r="5" spans="1:6">
       <c r="C5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7386,7 +7375,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7408,10 +7397,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1339D0C-4348-584A-971D-D0EE843203E9}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -7436,22 +7425,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="C5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7459,27 +7448,32 @@
     </row>
     <row r="19" spans="2:8">
       <c r="H19" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="C21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="C22" t="s">
-        <v>10</v>
+      <c r="C22" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="2" t="s">
-        <v>11</v>
+    <row r="24" spans="2:8">
+      <c r="C24" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/システム物理説明/システムアーキテクチャ物理構成図.xlsx
+++ b/システム物理説明/システムアーキテクチャ物理構成図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishidayuki/Desktop/気象データ明細出力_システム全容doc/システム物理説明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B030D-4B7D-3841-BF0C-65CCDBABC607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29337975-1749-4949-BD73-C37830AA0123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2035,8 +2035,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>410105</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>181500</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2051,8 +2051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8883329" y="8862688"/>
-          <a:ext cx="3074916" cy="873347"/>
+          <a:off x="8792987" y="8964671"/>
+          <a:ext cx="3047118" cy="1105682"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -2090,20 +2090,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>DAO</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>メソッドの起動や、</a:t>
+            <a:t>キューの監視や、</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
             <a:solidFill>
@@ -2119,7 +2111,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ビジネスロジックサービスを起動する。</a:t>
+            <a:t>ビジネスロジック処理及び</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メール送信処理を行う。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
             <a:solidFill>
@@ -2441,8 +2449,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171978</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>194235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2457,8 +2465,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11709400" y="5402262"/>
-          <a:ext cx="1562100" cy="1653116"/>
+          <a:off x="11696700" y="5303650"/>
+          <a:ext cx="1560606" cy="971644"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2735,128 +2743,6 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>DAO</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25941</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>207429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>383647</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>194729</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="線吹き出し 1 (枠付き) 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90A65B8-896A-8B40-940B-E4C6053265F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8856871" y="10204987"/>
-          <a:ext cx="3074916" cy="873347"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 3257"/>
-            <a:gd name="adj2" fmla="val 94729"/>
-            <a:gd name="adj3" fmla="val -380793"/>
-            <a:gd name="adj4" fmla="val 107576"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・「気象庁」のサーバーからのデータ取得</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・エクセルファイルへの収集データ書き込み</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>これらを行うクラス。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4641,6 +4527,155 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>299570</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>211697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="角丸四角形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D364AC-B300-2D49-8E2F-2E036E076368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11729570" y="6292756"/>
+          <a:ext cx="1560606" cy="699715"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メール送信</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サービスクラス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>517268</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>144743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="角丸四角形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9947102A-B55B-954C-89E9-193F7BC83367}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13964327" y="6439647"/>
+          <a:ext cx="1335438" cy="458508"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メール用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DAO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7329,8 +7364,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -7400,7 +7435,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="106" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>

--- a/システム物理説明/システムアーキテクチャ物理構成図.xlsx
+++ b/システム物理説明/システムアーキテクチャ物理構成図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishidayuki/Desktop/気象データ明細出力_システム全容doc/システム物理説明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29337975-1749-4949-BD73-C37830AA0123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3925A0A7-7E61-BE47-AF1E-5A23B3A6A341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,13 +815,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>119067</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>366718</xdr:colOff>
+      <xdr:colOff>495299</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -838,8 +838,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="119067" y="4868333"/>
-          <a:ext cx="1597026" cy="695325"/>
+          <a:off x="38100" y="4945062"/>
+          <a:ext cx="1803399" cy="706438"/>
         </a:xfrm>
         <a:prstGeom prst="frame">
           <a:avLst>
@@ -870,30 +870,30 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>バッチ区分</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:t>・バッチ区分</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>バッチ起動パラメータ</a:t>
+            <a:t>・バッチ起動パラメータ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1096,16 +1096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>193682</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536582</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>73554</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>52394</xdr:colOff>
+      <xdr:rowOff>111654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>395294</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1120,8 +1120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2892432" y="3023658"/>
-          <a:ext cx="1208087" cy="310092"/>
+          <a:off x="3902082" y="4023254"/>
+          <a:ext cx="1204912" cy="313796"/>
         </a:xfrm>
         <a:prstGeom prst="frame">
           <a:avLst>
@@ -1178,16 +1178,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>210615</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>69327</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>206744</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502714</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>520699</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>79744</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1202,8 +1202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2927824" y="6855860"/>
-          <a:ext cx="1217317" cy="690303"/>
+          <a:off x="3868214" y="6197600"/>
+          <a:ext cx="2037285" cy="308344"/>
         </a:xfrm>
         <a:prstGeom prst="frame">
           <a:avLst>
@@ -1246,23 +1246,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>エラーファイル</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>再作成バッチ</a:t>
+            <a:t>エラーファイル再作成バッチ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
@@ -2181,8 +2165,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9617621" y="4021667"/>
-          <a:ext cx="1349368" cy="661462"/>
+          <a:off x="9595396" y="4083579"/>
+          <a:ext cx="1346193" cy="672575"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2235,13 +2219,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>192104</xdr:colOff>
+      <xdr:colOff>171996</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>218547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>192097</xdr:colOff>
+      <xdr:colOff>171989</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>6882</xdr:rowOff>
     </xdr:to>
@@ -2258,8 +2242,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9637729" y="3843339"/>
-          <a:ext cx="1349368" cy="463022"/>
+          <a:off x="9595396" y="4815947"/>
+          <a:ext cx="1346193" cy="474135"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2304,15 +2288,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>198983</xdr:colOff>
+      <xdr:colOff>171996</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>93134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>198976</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171978</xdr:rowOff>
+      <xdr:colOff>171989</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2327,8 +2311,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9644608" y="4392613"/>
-          <a:ext cx="1349368" cy="1653115"/>
+          <a:off x="9595396" y="5376334"/>
+          <a:ext cx="1346193" cy="1761066"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2373,15 +2357,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>212212</xdr:colOff>
+      <xdr:colOff>171996</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>40218</xdr:rowOff>
+      <xdr:rowOff>103718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>212205</xdr:colOff>
+      <xdr:colOff>171989</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>53448</xdr:rowOff>
+      <xdr:rowOff>116948</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2396,8 +2380,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9657837" y="6138864"/>
-          <a:ext cx="1349368" cy="463022"/>
+          <a:off x="9595396" y="7215718"/>
+          <a:ext cx="1346193" cy="470430"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2443,14 +2427,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>220662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>194235</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2465,8 +2449,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11696700" y="5303650"/>
-          <a:ext cx="1560606" cy="971644"/>
+          <a:off x="11709400" y="5275262"/>
+          <a:ext cx="1562100" cy="630237"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2542,8 +2526,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13909169" y="3307292"/>
-          <a:ext cx="1463129" cy="873125"/>
+          <a:off x="13877419" y="3358092"/>
+          <a:ext cx="1459954" cy="887942"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2599,13 +2583,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>435527</xdr:colOff>
+      <xdr:colOff>415419</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>139171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>549281</xdr:colOff>
+      <xdr:colOff>529173</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>39689</xdr:rowOff>
     </xdr:to>
@@ -2622,8 +2606,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13929277" y="4213754"/>
-          <a:ext cx="1463129" cy="3273956"/>
+          <a:off x="13877419" y="4279371"/>
+          <a:ext cx="1459954" cy="3329518"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2671,15 +2655,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>455636</xdr:colOff>
+      <xdr:colOff>415419</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>79904</xdr:rowOff>
+      <xdr:rowOff>67204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>569390</xdr:colOff>
+      <xdr:colOff>529173</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>92605</xdr:rowOff>
+      <xdr:rowOff>79905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2694,8 +2678,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13949386" y="7527925"/>
-          <a:ext cx="1463129" cy="912284"/>
+          <a:off x="13877419" y="7636404"/>
+          <a:ext cx="1459954" cy="927101"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4003,14 +3987,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4025,7 +4009,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11188700" y="7302500"/>
+          <a:off x="11188700" y="7366000"/>
           <a:ext cx="2540000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4057,13 +4041,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4078,7 +4062,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11137900" y="7429500"/>
+          <a:off x="11137900" y="7493000"/>
           <a:ext cx="2578100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4532,15 +4516,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>299570</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>211697</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>515470</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>14942</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>192742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4555,8 +4539,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11729570" y="6292756"/>
-          <a:ext cx="1560606" cy="699715"/>
+          <a:off x="11709400" y="5930900"/>
+          <a:ext cx="1562100" cy="688042"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4609,13 +4593,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>517268</xdr:colOff>
+      <xdr:colOff>479168</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>469900</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>144743</xdr:rowOff>
     </xdr:to>
@@ -4632,8 +4616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13964327" y="6439647"/>
-          <a:ext cx="1335438" cy="458508"/>
+          <a:off x="13941168" y="6560671"/>
+          <a:ext cx="1336932" cy="467472"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4673,6 +4657,247 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>DAO</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>218142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7721C8-7317-E643-B44C-E802B2F076D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11709400" y="6642100"/>
+          <a:ext cx="1562100" cy="688042"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイル書き込み</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サービスクラス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>155582</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14294</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フレーム 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2A94CA-C43D-6647-9793-E25B4FB15B35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7559682" y="3426354"/>
+          <a:ext cx="1204912" cy="313796"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規作成バッチ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83614</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101599</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>130544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フレーム 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AD56CB-F3F6-E442-AD53-519FB660ABEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7487714" y="7391400"/>
+          <a:ext cx="2037285" cy="308344"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラーファイル再作成バッチ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5599,8 +5824,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2203714" y="6966602"/>
-          <a:ext cx="2422928" cy="2137425"/>
+          <a:off x="2210184" y="6996794"/>
+          <a:ext cx="2429398" cy="2146052"/>
           <a:chOff x="1864975" y="6779098"/>
           <a:chExt cx="2431868" cy="2168629"/>
         </a:xfrm>
@@ -6254,8 +6479,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11302099" y="7097619"/>
-          <a:ext cx="2043614" cy="1490600"/>
+          <a:off x="11336605" y="7128770"/>
+          <a:ext cx="2050083" cy="1496351"/>
           <a:chOff x="12167094" y="7239895"/>
           <a:chExt cx="2037836" cy="1485465"/>
         </a:xfrm>
@@ -7364,8 +7589,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" workbookViewId="0">
-      <selection activeCell="R48" sqref="R48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -7434,7 +7659,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="106" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
